--- a/Document/Code_source/Sample_Data/Product_Data.xlsx
+++ b/Document/Code_source/Sample_Data/Product_Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\Desktop\GitHub\COMP_project\Document\Code_source\Sample_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="575">
   <si>
     <t>135.7mm x 44.4mm</t>
   </si>
@@ -1397,9 +1402,6 @@
   </si>
   <si>
     <t>443 x 170 x 39</t>
-  </si>
-  <si>
-    <t>CORSAIR K70 RGB MK.2 (적축)</t>
   </si>
   <si>
     <t>ASUS ROG CLAYMORE US (청축)</t>
@@ -1774,8 +1776,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2001,7 +2003,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2033,9 +2035,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2067,6 +2070,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2242,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -2250,7 +2254,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2260,7 +2264,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,7 +2284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -2298,7 +2302,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -2316,7 +2320,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>36</v>
       </c>
@@ -2332,7 +2336,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -2350,7 +2354,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2370,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
@@ -2384,7 +2388,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -2420,7 +2424,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -2438,7 +2442,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -2456,7 +2460,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -2472,7 +2476,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2490,7 +2494,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2526,7 +2530,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -2544,7 +2548,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -2560,7 +2564,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2582,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -2596,7 +2600,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -2614,7 +2618,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2640,14 +2644,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2657,7 +2661,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2677,7 +2681,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2701,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2717,7 +2721,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2737,7 +2741,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2759,7 @@
       </c>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -2793,7 +2797,7 @@
       </c>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2811,7 +2815,7 @@
       </c>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -2829,7 +2833,7 @@
       </c>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2887,7 +2891,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -2961,7 +2965,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -2997,7 +3001,7 @@
       </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +3019,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3033,7 +3037,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3059,14 +3063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3076,7 +3080,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3116,7 +3120,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3156,7 +3160,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -3276,7 +3280,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3356,7 +3360,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3396,7 +3400,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3444,7 +3448,7 @@
         <v>453</v>
       </c>
       <c r="C19" s="8">
-        <v>219000</v>
+        <v>249000</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>47</v>
@@ -3453,47 +3457,27 @@
         <v>183</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C20" s="8">
-        <v>249000</v>
+        <v>155500</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="8" t="s">
         <v>456</v>
-      </c>
-      <c r="C21" s="8">
-        <v>155500</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3504,14 +3488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3521,7 +3505,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3538,15 +3522,15 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C2" s="8">
         <v>30000</v>
@@ -3556,15 +3540,15 @@
         <v>91</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C3" s="8">
         <v>95000</v>
@@ -3576,15 +3560,15 @@
         <v>98</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C4" s="8">
         <v>16800</v>
@@ -3596,15 +3580,15 @@
         <v>88</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" s="8">
         <v>19190</v>
@@ -3614,15 +3598,15 @@
         <v>172</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" s="8">
         <v>28900</v>
@@ -3634,15 +3618,15 @@
         <v>72</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C7" s="8">
         <v>84000</v>
@@ -3654,15 +3638,15 @@
         <v>99</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C8" s="8">
         <v>49900</v>
@@ -3674,15 +3658,15 @@
         <v>293</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C9" s="8">
         <v>39770</v>
@@ -3694,15 +3678,15 @@
         <v>88</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C10" s="8">
         <v>21970</v>
@@ -3714,15 +3698,15 @@
         <v>91</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C11" s="8">
         <v>20990</v>
@@ -3734,51 +3718,51 @@
         <v>72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="8">
         <v>6900</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C13" s="8">
         <v>2140</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="8">
         <v>21440</v>
@@ -3788,15 +3772,15 @@
         <v>100</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C15" s="8">
         <v>49900</v>
@@ -3808,33 +3792,33 @@
         <v>89</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C16" s="8">
         <v>17070</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C17" s="8">
         <v>95000</v>
@@ -3846,15 +3830,15 @@
         <v>186</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C18" s="8">
         <v>16700</v>
@@ -3866,15 +3850,15 @@
         <v>94</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C19" s="8">
         <v>89000</v>
@@ -3886,15 +3870,15 @@
         <v>90</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C20" s="8">
         <v>94700</v>
@@ -3904,15 +3888,15 @@
         <v>288</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C21" s="8">
         <v>79900</v>
@@ -3924,7 +3908,7 @@
         <v>94</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3935,14 +3919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3952,7 +3936,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3969,15 +3953,15 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C2" s="8">
         <v>19500</v>
@@ -3989,15 +3973,15 @@
         <v>92</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C3" s="8">
         <v>16500</v>
@@ -4009,15 +3993,15 @@
         <v>350</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C4" s="8">
         <v>14870</v>
@@ -4026,18 +4010,18 @@
         <v>45</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C5" s="8">
         <v>39900</v>
@@ -4049,15 +4033,15 @@
         <v>56</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C6" s="8">
         <v>49660</v>
@@ -4069,15 +4053,15 @@
         <v>88</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C7" s="8">
         <v>29820</v>
@@ -4089,15 +4073,15 @@
         <v>100</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C8" s="8">
         <v>16000</v>
@@ -4109,15 +4093,15 @@
         <v>361</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C9" s="8">
         <v>149000</v>
@@ -4126,18 +4110,18 @@
         <v>246</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C10" s="8">
         <v>22500</v>
@@ -4149,15 +4133,15 @@
         <v>407</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C11" s="8">
         <v>15800</v>
@@ -4169,15 +4153,15 @@
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C12" s="8">
         <v>35190</v>
@@ -4186,18 +4170,18 @@
         <v>45</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C13" s="8">
         <v>4100</v>
@@ -4206,18 +4190,18 @@
         <v>246</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C14" s="8">
         <v>27400</v>
@@ -4229,15 +4213,15 @@
         <v>272</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C15" s="8">
         <v>18660</v>
@@ -4249,15 +4233,15 @@
         <v>288</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C16" s="8">
         <v>39000</v>
@@ -4269,15 +4253,15 @@
         <v>89</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C17" s="8">
         <v>17900</v>
@@ -4289,15 +4273,15 @@
         <v>304</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C18" s="8">
         <v>38970</v>
@@ -4309,15 +4293,15 @@
         <v>97</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C19" s="8">
         <v>252000</v>
@@ -4329,15 +4313,15 @@
         <v>389</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C20" s="8">
         <v>171640</v>
@@ -4346,18 +4330,18 @@
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="F20" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C21" s="8">
         <v>42400</v>
@@ -4369,7 +4353,7 @@
         <v>97</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4380,14 +4364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4397,7 +4381,7 @@
     <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4414,15 +4398,15 @@
         <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2" s="8">
         <v>192990</v>
@@ -4432,15 +4416,15 @@
         <v>197</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C3" s="8">
         <v>199000</v>
@@ -4450,33 +4434,33 @@
         <v>102</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4" s="8">
         <v>189000</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C5" s="8">
         <v>398900</v>
@@ -4486,15 +4470,15 @@
         <v>186</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C6" s="8">
         <v>138000</v>
@@ -4504,15 +4488,15 @@
         <v>56</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C7" s="8">
         <v>145000</v>
@@ -4522,15 +4506,15 @@
         <v>414</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C8" s="8">
         <v>156600</v>
@@ -4540,15 +4524,15 @@
         <v>96</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="8">
         <v>249480</v>
@@ -4558,15 +4542,15 @@
         <v>288</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C10" s="8">
         <v>378990</v>
@@ -4576,15 +4560,15 @@
         <v>92</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C11" s="8">
         <v>239000</v>
@@ -4594,15 +4578,15 @@
         <v>99</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C12" s="8">
         <v>159000</v>
@@ -4612,15 +4596,15 @@
         <v>183</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C13" s="8">
         <v>178580</v>
@@ -4630,15 +4614,15 @@
         <v>270</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C14" s="8">
         <v>339000</v>
@@ -4648,15 +4632,15 @@
         <v>272</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C15" s="8">
         <v>218990</v>
@@ -4666,15 +4650,15 @@
         <v>89</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C16" s="8">
         <v>329000</v>
@@ -4684,15 +4668,15 @@
         <v>98</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C17" s="8">
         <v>181000</v>
@@ -4702,15 +4686,15 @@
         <v>98</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C18" s="8">
         <v>273500</v>
@@ -4720,15 +4704,15 @@
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C19" s="8">
         <v>493580</v>
@@ -4738,15 +4722,15 @@
         <v>72</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C20" s="8">
         <v>192990</v>
@@ -4756,15 +4740,15 @@
         <v>197</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C21" s="8">
         <v>364000</v>
@@ -4774,7 +4758,7 @@
         <v>186</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4785,7 +4769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -4793,7 +4777,7 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4803,7 +4787,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4823,7 +4807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4841,7 +4825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4859,7 +4843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +4861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4895,7 +4879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -4913,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4931,7 +4915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4949,7 +4933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
@@ -4967,7 +4951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -4985,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -5003,7 +4987,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -5021,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -5039,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -5057,7 +5041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -5075,7 +5059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -5093,7 +5077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -5111,7 +5095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -5129,7 +5113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -5147,7 +5131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -5165,7 +5149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -5191,7 +5175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -5199,7 +5183,7 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5209,7 +5193,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5229,7 +5213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5249,7 +5233,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5269,7 +5253,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5289,7 +5273,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5309,7 +5293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5329,7 +5313,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5349,7 +5333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5369,7 +5353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5389,7 +5373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5409,7 +5393,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5429,7 +5413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5449,7 +5433,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5469,7 +5453,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5489,7 +5473,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5509,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5527,7 +5511,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5547,7 +5531,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5567,7 +5551,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -5587,7 +5571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -5607,7 +5591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -5635,14 +5619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5652,7 +5636,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5672,7 +5656,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5692,7 +5676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5712,7 +5696,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5730,7 +5714,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5748,7 +5732,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5766,7 +5750,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5784,7 +5768,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5802,7 +5786,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5820,7 +5804,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5838,7 +5822,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5856,7 +5840,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5874,7 +5858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5892,7 +5876,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5910,7 +5894,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5928,7 +5912,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5946,7 +5930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5964,7 +5948,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5982,7 +5966,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6000,7 +5984,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6018,7 +6002,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6044,14 +6028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6061,7 +6045,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6081,7 +6065,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6101,7 +6085,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6121,7 +6105,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6141,7 +6125,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6161,7 +6145,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6181,7 +6165,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6201,7 +6185,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6221,7 +6205,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6241,7 +6225,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6261,7 +6245,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6281,7 +6265,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6301,7 +6285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6321,7 +6305,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6341,7 +6325,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6361,7 +6345,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6381,7 +6365,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6401,7 +6385,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6421,7 +6405,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6441,7 +6425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6461,7 +6445,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6489,14 +6473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6506,7 +6490,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6526,7 +6510,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6546,7 +6530,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6566,7 +6550,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6586,7 +6570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6606,7 +6590,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6626,7 +6610,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6646,7 +6630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6666,7 +6650,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6686,7 +6670,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6706,7 +6690,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6726,7 +6710,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6746,7 +6730,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6766,7 +6750,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6786,7 +6770,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6806,7 +6790,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6826,7 +6810,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6846,7 +6830,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6866,7 +6850,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6886,7 +6870,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6906,7 +6890,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -6922,14 +6906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6939,7 +6923,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6959,7 +6943,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6979,7 +6963,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6999,7 +6983,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7019,7 +7003,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7039,7 +7023,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7059,7 +7043,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7079,7 +7063,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7099,7 +7083,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7119,7 +7103,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7139,7 +7123,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7159,7 +7143,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7179,7 +7163,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7199,7 +7183,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7219,7 +7203,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7239,7 +7223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7259,7 +7243,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7279,7 +7263,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7299,7 +7283,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7319,7 +7303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7339,7 +7323,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7367,14 +7351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7384,7 +7368,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7404,7 +7388,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7422,7 +7406,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7440,7 +7424,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7458,7 +7442,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7476,7 +7460,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7494,7 +7478,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7512,7 +7496,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7530,7 +7514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7548,7 +7532,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7566,7 +7550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7584,7 +7568,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7602,7 +7586,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7620,7 +7604,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7638,7 +7622,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7656,7 +7640,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7674,7 +7658,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7692,7 +7676,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7710,7 +7694,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7728,7 +7712,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7746,7 +7730,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7772,14 +7756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7789,7 +7773,7 @@
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7809,7 +7793,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7829,7 +7813,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7849,7 +7833,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7869,7 +7853,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7889,7 +7873,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7909,7 +7893,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7929,7 +7913,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7949,7 +7933,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7969,7 +7953,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7989,7 +7973,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -8009,7 +7993,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -8029,7 +8013,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -8049,7 +8033,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -8069,7 +8053,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -8089,7 +8073,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -8109,7 +8093,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -8127,7 +8111,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -8145,7 +8129,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -8163,7 +8147,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -8181,7 +8165,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>

--- a/Document/Code_source/Sample_Data/Product_Data.xlsx
+++ b/Document/Code_source/Sample_Data/Product_Data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\Desktop\GitHub\COMP_project\Document\Code_source\Sample_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16365" windowHeight="6810" tabRatio="629" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -32,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="860">
   <si>
     <t>135.7mm x 44.4mm</t>
   </si>
@@ -1771,13 +1766,895 @@
   </si>
   <si>
     <t>필립스 325M7 QHD 144 프리싱크 게이밍 무결점</t>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/001.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/002.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/003.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/004.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/005.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/006.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/007.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/008.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/009.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/010.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/011.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/012.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/013.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/014.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/015.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/016.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/017.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/018.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/019.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP/020.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB/001.jpg</t>
+  </si>
+  <si>
+    <t>MB/002.jpg</t>
+  </si>
+  <si>
+    <t>MB/003.jpg</t>
+  </si>
+  <si>
+    <t>MB/004.jpg</t>
+  </si>
+  <si>
+    <t>MB/005.jpg</t>
+  </si>
+  <si>
+    <t>MB/006.jpg</t>
+  </si>
+  <si>
+    <t>MB/007.jpg</t>
+  </si>
+  <si>
+    <t>MB/008.jpg</t>
+  </si>
+  <si>
+    <t>MB/009.jpg</t>
+  </si>
+  <si>
+    <t>MB/010.jpg</t>
+  </si>
+  <si>
+    <t>MB/011.jpg</t>
+  </si>
+  <si>
+    <t>MB/012.jpg</t>
+  </si>
+  <si>
+    <t>MB/013.jpg</t>
+  </si>
+  <si>
+    <t>MB/014.jpg</t>
+  </si>
+  <si>
+    <t>MB/015.jpg</t>
+  </si>
+  <si>
+    <t>MB/016.jpg</t>
+  </si>
+  <si>
+    <t>MB/017.jpg</t>
+  </si>
+  <si>
+    <t>MB/018.jpg</t>
+  </si>
+  <si>
+    <t>MB/019.jpg</t>
+  </si>
+  <si>
+    <t>MB/020.jpg</t>
+  </si>
+  <si>
+    <t>R/001.jpg</t>
+  </si>
+  <si>
+    <t>R/002.jpg</t>
+  </si>
+  <si>
+    <t>R/003.jpg</t>
+  </si>
+  <si>
+    <t>R/004.jpg</t>
+  </si>
+  <si>
+    <t>R/005.jpg</t>
+  </si>
+  <si>
+    <t>R/006.jpg</t>
+  </si>
+  <si>
+    <t>R/007.jpg</t>
+  </si>
+  <si>
+    <t>R/008.jpg</t>
+  </si>
+  <si>
+    <t>R/009.jpg</t>
+  </si>
+  <si>
+    <t>R/010.jpg</t>
+  </si>
+  <si>
+    <t>R/011.jpg</t>
+  </si>
+  <si>
+    <t>R/012.jpg</t>
+  </si>
+  <si>
+    <t>R/013.jpg</t>
+  </si>
+  <si>
+    <t>R/014.jpg</t>
+  </si>
+  <si>
+    <t>R/015.jpg</t>
+  </si>
+  <si>
+    <t>R/016.jpg</t>
+  </si>
+  <si>
+    <t>R/017.jpg</t>
+  </si>
+  <si>
+    <t>R/018.jpg</t>
+  </si>
+  <si>
+    <t>R/019.jpg</t>
+  </si>
+  <si>
+    <t>R/020.jpg</t>
+  </si>
+  <si>
+    <t>G/001.jpg</t>
+  </si>
+  <si>
+    <t>G/002.jpg</t>
+  </si>
+  <si>
+    <t>G/003.jpg</t>
+  </si>
+  <si>
+    <t>G/004.jpg</t>
+  </si>
+  <si>
+    <t>G/005.jpg</t>
+  </si>
+  <si>
+    <t>G/006.jpg</t>
+  </si>
+  <si>
+    <t>G/007.jpg</t>
+  </si>
+  <si>
+    <t>G/008.jpg</t>
+  </si>
+  <si>
+    <t>G/009.jpg</t>
+  </si>
+  <si>
+    <t>G/010.jpg</t>
+  </si>
+  <si>
+    <t>G/011.jpg</t>
+  </si>
+  <si>
+    <t>G/012.jpg</t>
+  </si>
+  <si>
+    <t>G/013.jpg</t>
+  </si>
+  <si>
+    <t>G/014.jpg</t>
+  </si>
+  <si>
+    <t>G/015.jpg</t>
+  </si>
+  <si>
+    <t>G/016.jpg</t>
+  </si>
+  <si>
+    <t>G/017.jpg</t>
+  </si>
+  <si>
+    <t>G/018.jpg</t>
+  </si>
+  <si>
+    <t>G/019.jpg</t>
+  </si>
+  <si>
+    <t>G/020.jpg</t>
+  </si>
+  <si>
+    <t>SS/001.jpg</t>
+  </si>
+  <si>
+    <t>SS/002.jpg</t>
+  </si>
+  <si>
+    <t>SS/003.jpg</t>
+  </si>
+  <si>
+    <t>SS/004.jpg</t>
+  </si>
+  <si>
+    <t>SS/005.jpg</t>
+  </si>
+  <si>
+    <t>SS/006.jpg</t>
+  </si>
+  <si>
+    <t>SS/007.jpg</t>
+  </si>
+  <si>
+    <t>SS/008.jpg</t>
+  </si>
+  <si>
+    <t>SS/009.jpg</t>
+  </si>
+  <si>
+    <t>SS/010.jpg</t>
+  </si>
+  <si>
+    <t>SS/011.jpg</t>
+  </si>
+  <si>
+    <t>SS/012.jpg</t>
+  </si>
+  <si>
+    <t>SS/013.jpg</t>
+  </si>
+  <si>
+    <t>SS/014.jpg</t>
+  </si>
+  <si>
+    <t>SS/015.jpg</t>
+  </si>
+  <si>
+    <t>SS/016.jpg</t>
+  </si>
+  <si>
+    <t>SS/017.jpg</t>
+  </si>
+  <si>
+    <t>SS/018.jpg</t>
+  </si>
+  <si>
+    <t>SS/019.jpg</t>
+  </si>
+  <si>
+    <t>SS/020.jpg</t>
+  </si>
+  <si>
+    <t>H/001.jpg</t>
+  </si>
+  <si>
+    <t>H/002.jpg</t>
+  </si>
+  <si>
+    <t>H/003.jpg</t>
+  </si>
+  <si>
+    <t>H/004.jpg</t>
+  </si>
+  <si>
+    <t>H/005.jpg</t>
+  </si>
+  <si>
+    <t>H/006.jpg</t>
+  </si>
+  <si>
+    <t>H/007.jpg</t>
+  </si>
+  <si>
+    <t>H/008.jpg</t>
+  </si>
+  <si>
+    <t>H/009.jpg</t>
+  </si>
+  <si>
+    <t>H/010.jpg</t>
+  </si>
+  <si>
+    <t>H/011.jpg</t>
+  </si>
+  <si>
+    <t>H/012.jpg</t>
+  </si>
+  <si>
+    <t>H/013.jpg</t>
+  </si>
+  <si>
+    <t>H/014.jpg</t>
+  </si>
+  <si>
+    <t>H/015.jpg</t>
+  </si>
+  <si>
+    <t>H/016.jpg</t>
+  </si>
+  <si>
+    <t>H/017.jpg</t>
+  </si>
+  <si>
+    <t>H/018.jpg</t>
+  </si>
+  <si>
+    <t>H/019.jpg</t>
+  </si>
+  <si>
+    <t>PO/001.jpg</t>
+  </si>
+  <si>
+    <t>PO/002.jpg</t>
+  </si>
+  <si>
+    <t>PO/003.jpg</t>
+  </si>
+  <si>
+    <t>PO/004.jpg</t>
+  </si>
+  <si>
+    <t>PO/005.jpg</t>
+  </si>
+  <si>
+    <t>PO/006.jpg</t>
+  </si>
+  <si>
+    <t>PO/007.jpg</t>
+  </si>
+  <si>
+    <t>PO/008.jpg</t>
+  </si>
+  <si>
+    <t>PO/009.jpg</t>
+  </si>
+  <si>
+    <t>PO/010.jpg</t>
+  </si>
+  <si>
+    <t>PO/011.jpg</t>
+  </si>
+  <si>
+    <t>PO/012.jpg</t>
+  </si>
+  <si>
+    <t>PO/013.jpg</t>
+  </si>
+  <si>
+    <t>PO/014.jpg</t>
+  </si>
+  <si>
+    <t>PO/015.jpg</t>
+  </si>
+  <si>
+    <t>PO/016.jpg</t>
+  </si>
+  <si>
+    <t>PO/017.jpg</t>
+  </si>
+  <si>
+    <t>PO/018.jpg</t>
+  </si>
+  <si>
+    <t>PO/019.jpg</t>
+  </si>
+  <si>
+    <t>PO/020.jpg</t>
+  </si>
+  <si>
+    <t>CA/001.jpg</t>
+  </si>
+  <si>
+    <t>CA/002.jpg</t>
+  </si>
+  <si>
+    <t>CA/003.jpg</t>
+  </si>
+  <si>
+    <t>CA/004.jpg</t>
+  </si>
+  <si>
+    <t>CA/005.jpg</t>
+  </si>
+  <si>
+    <t>CA/006.jpg</t>
+  </si>
+  <si>
+    <t>CA/007.jpg</t>
+  </si>
+  <si>
+    <t>CA/008.jpg</t>
+  </si>
+  <si>
+    <t>CA/009.jpg</t>
+  </si>
+  <si>
+    <t>CA/010.jpg</t>
+  </si>
+  <si>
+    <t>CA/011.jpg</t>
+  </si>
+  <si>
+    <t>CA/012.jpg</t>
+  </si>
+  <si>
+    <t>CA/013.jpg</t>
+  </si>
+  <si>
+    <t>CA/014.jpg</t>
+  </si>
+  <si>
+    <t>CA/015.jpg</t>
+  </si>
+  <si>
+    <t>CA/016.jpg</t>
+  </si>
+  <si>
+    <t>CA/017.jpg</t>
+  </si>
+  <si>
+    <t>CA/018.jpg</t>
+  </si>
+  <si>
+    <t>CA/019.jpg</t>
+  </si>
+  <si>
+    <t>CA/020.jpg</t>
+  </si>
+  <si>
+    <t>CO/001.jpg</t>
+  </si>
+  <si>
+    <t>CO/002.jpg</t>
+  </si>
+  <si>
+    <t>CO/003.jpg</t>
+  </si>
+  <si>
+    <t>CO/004.jpg</t>
+  </si>
+  <si>
+    <t>CO/005.jpg</t>
+  </si>
+  <si>
+    <t>CO/006.jpg</t>
+  </si>
+  <si>
+    <t>CO/007.jpg</t>
+  </si>
+  <si>
+    <t>CO/008.jpg</t>
+  </si>
+  <si>
+    <t>CO/009.jpg</t>
+  </si>
+  <si>
+    <t>CO/010.jpg</t>
+  </si>
+  <si>
+    <t>CO/011.jpg</t>
+  </si>
+  <si>
+    <t>CO/012.jpg</t>
+  </si>
+  <si>
+    <t>CO/013.jpg</t>
+  </si>
+  <si>
+    <t>CO/014.jpg</t>
+  </si>
+  <si>
+    <t>CO/015.jpg</t>
+  </si>
+  <si>
+    <t>CO/016.jpg</t>
+  </si>
+  <si>
+    <t>CO/017.jpg</t>
+  </si>
+  <si>
+    <t>CO/018.jpg</t>
+  </si>
+  <si>
+    <t>CO/019.jpg</t>
+  </si>
+  <si>
+    <t>CO/020.jpg</t>
+  </si>
+  <si>
+    <t>SW/001.jpg</t>
+  </si>
+  <si>
+    <t>SW/002.jpg</t>
+  </si>
+  <si>
+    <t>SW/003.jpg</t>
+  </si>
+  <si>
+    <t>SW/004.jpg</t>
+  </si>
+  <si>
+    <t>SW/005.jpg</t>
+  </si>
+  <si>
+    <t>SW/006.jpg</t>
+  </si>
+  <si>
+    <t>SW/007.jpg</t>
+  </si>
+  <si>
+    <t>SW/008.jpg</t>
+  </si>
+  <si>
+    <t>SW/009.jpg</t>
+  </si>
+  <si>
+    <t>SW/010.jpg</t>
+  </si>
+  <si>
+    <t>SW/011.jpg</t>
+  </si>
+  <si>
+    <t>SW/012.jpg</t>
+  </si>
+  <si>
+    <t>SW/013.jpg</t>
+  </si>
+  <si>
+    <t>SW/014.jpg</t>
+  </si>
+  <si>
+    <t>SW/015.jpg</t>
+  </si>
+  <si>
+    <t>SW/016.jpg</t>
+  </si>
+  <si>
+    <t>SW/017.jpg</t>
+  </si>
+  <si>
+    <t>SW/018.jpg</t>
+  </si>
+  <si>
+    <t>SW/019.jpg</t>
+  </si>
+  <si>
+    <t>SW/020.jpg</t>
+  </si>
+  <si>
+    <t>K/001.jpg</t>
+  </si>
+  <si>
+    <t>K/002.jpg</t>
+  </si>
+  <si>
+    <t>K/003.jpg</t>
+  </si>
+  <si>
+    <t>K/004.jpg</t>
+  </si>
+  <si>
+    <t>K/005.jpg</t>
+  </si>
+  <si>
+    <t>K/006.jpg</t>
+  </si>
+  <si>
+    <t>K/007.jpg</t>
+  </si>
+  <si>
+    <t>K/008.jpg</t>
+  </si>
+  <si>
+    <t>K/009.jpg</t>
+  </si>
+  <si>
+    <t>K/010.jpg</t>
+  </si>
+  <si>
+    <t>K/011.jpg</t>
+  </si>
+  <si>
+    <t>K/012.jpg</t>
+  </si>
+  <si>
+    <t>K/013.jpg</t>
+  </si>
+  <si>
+    <t>K/014.jpg</t>
+  </si>
+  <si>
+    <t>K/015.jpg</t>
+  </si>
+  <si>
+    <t>K/016.jpg</t>
+  </si>
+  <si>
+    <t>K/017.jpg</t>
+  </si>
+  <si>
+    <t>K/018.jpg</t>
+  </si>
+  <si>
+    <t>K/019.jpg</t>
+  </si>
+  <si>
+    <t>MO/001.jpg</t>
+  </si>
+  <si>
+    <t>MO/002.jpg</t>
+  </si>
+  <si>
+    <t>MO/003.jpg</t>
+  </si>
+  <si>
+    <t>MO/004.jpg</t>
+  </si>
+  <si>
+    <t>MO/005.jpg</t>
+  </si>
+  <si>
+    <t>MO/006.jpg</t>
+  </si>
+  <si>
+    <t>MO/007.jpg</t>
+  </si>
+  <si>
+    <t>MO/008.jpg</t>
+  </si>
+  <si>
+    <t>MO/009.jpg</t>
+  </si>
+  <si>
+    <t>MO/010.jpg</t>
+  </si>
+  <si>
+    <t>MO/011.jpg</t>
+  </si>
+  <si>
+    <t>MO/012.jpg</t>
+  </si>
+  <si>
+    <t>MO/013.jpg</t>
+  </si>
+  <si>
+    <t>MO/014.jpg</t>
+  </si>
+  <si>
+    <t>MO/015.jpg</t>
+  </si>
+  <si>
+    <t>MO/016.jpg</t>
+  </si>
+  <si>
+    <t>MO/017.jpg</t>
+  </si>
+  <si>
+    <t>MO/018.jpg</t>
+  </si>
+  <si>
+    <t>MO/019.jpg</t>
+  </si>
+  <si>
+    <t>MO/020.jpg</t>
+  </si>
+  <si>
+    <t>SP/001.jpg</t>
+  </si>
+  <si>
+    <t>SP/002.jpg</t>
+  </si>
+  <si>
+    <t>SP/003.jpg</t>
+  </si>
+  <si>
+    <t>SP/004.jpg</t>
+  </si>
+  <si>
+    <t>SP/005.jpg</t>
+  </si>
+  <si>
+    <t>SP/006.jpg</t>
+  </si>
+  <si>
+    <t>SP/007.jpg</t>
+  </si>
+  <si>
+    <t>SP/008.jpg</t>
+  </si>
+  <si>
+    <t>SP/009.jpg</t>
+  </si>
+  <si>
+    <t>SP/010.jpg</t>
+  </si>
+  <si>
+    <t>SP/011.jpg</t>
+  </si>
+  <si>
+    <t>SP/012.jpg</t>
+  </si>
+  <si>
+    <t>SP/013.jpg</t>
+  </si>
+  <si>
+    <t>SP/014.jpg</t>
+  </si>
+  <si>
+    <t>SP/015.jpg</t>
+  </si>
+  <si>
+    <t>SP/016.jpg</t>
+  </si>
+  <si>
+    <t>SP/017.jpg</t>
+  </si>
+  <si>
+    <t>SP/018.jpg</t>
+  </si>
+  <si>
+    <t>SP/019.jpg</t>
+  </si>
+  <si>
+    <t>SP/020.jpg</t>
+  </si>
+  <si>
+    <t>'CP_'||LPAD(TO_CHAR(p_cp_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'MB_'||LPAD(TO_CHAR(p_mb_num_seq.NEXTVAL),3,'0'))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MB_'||LPAD(TO_CHAR(p_mb_num_seq.NEXTVAL),3,'0'))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'G_'||LPAD(TO_CHAR(p_g_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>G_'||LPAD(TO_CHAR(p_g_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'SS_'||LPAD(TO_CHAR(p_ss_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>SS_'||LPAD(TO_CHAR(p_ss_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'H_'||LPAD(TO_CHAR(p_h_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>H_'||LPAD(TO_CHAR(p_h_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'PO_'||LPAD(TO_CHAR(p_po_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>PO_'||LPAD(TO_CHAR(p_po_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'CA_'||LPAD(TO_CHAR(p_ca_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>CA_'||LPAD(TO_CHAR(p_ca_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'CO_'||LPAD(TO_CHAR(p_co_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>CO_'||LPAD(TO_CHAR(p_co_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'SW_'||LPAD(TO_CHAR(p_sw_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>SW_'||LPAD(TO_CHAR(p_sw_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'K_'||LPAD(TO_CHAR(p_k_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>K_'||LPAD(TO_CHAR(p_k_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'MO_'||LPAD(TO_CHAR(p_mo_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>MO_'||LPAD(TO_CHAR(p_mo_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'SP_'||LPAD(TO_CHAR(p_sp_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>SP_'||LPAD(TO_CHAR(p_sp_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>'R_'||LPAD(TO_CHAR(p_r_num_seq.NEXTVAL),3,'0'))</t>
+  </si>
+  <si>
+    <t>R_'||LPAD(TO_CHAR(p_r_num_seq.NEXTVAL),3,'0'))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="\C\P_'000"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1895,7 +2772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1940,6 +2817,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2003,7 +2883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2035,10 +2915,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2070,7 +2949,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2246,25 +3124,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
     <col min="3" max="3" width="9.125" customWidth="1"/>
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2283,9 +3163,15 @@
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2301,9 +3187,15 @@
         <v>143</v>
       </c>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2319,9 +3211,15 @@
         <v>99</v>
       </c>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2335,9 +3233,15 @@
         <v>97</v>
       </c>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="G4" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2353,9 +3257,15 @@
         <v>100</v>
       </c>
       <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="G5" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2369,9 +3279,15 @@
         <v>98</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="G6" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2387,9 +3303,15 @@
         <v>97</v>
       </c>
       <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="G7" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2405,9 +3327,15 @@
         <v>101</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2423,9 +3351,15 @@
         <v>88</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2441,9 +3375,15 @@
         <v>89</v>
       </c>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2459,9 +3399,15 @@
         <v>86</v>
       </c>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="G11" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2475,9 +3421,15 @@
         <v>85</v>
       </c>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="G12" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2493,9 +3445,15 @@
         <v>90</v>
       </c>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="G13" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2511,9 +3469,15 @@
         <v>88</v>
       </c>
       <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="G14" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2529,9 +3493,15 @@
         <v>102</v>
       </c>
       <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2547,9 +3517,15 @@
         <v>91</v>
       </c>
       <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2563,9 +3539,15 @@
         <v>88</v>
       </c>
       <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="G17" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2581,9 +3563,15 @@
         <v>83</v>
       </c>
       <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="G18" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2599,9 +3587,15 @@
         <v>90</v>
       </c>
       <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="G19" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2617,9 +3611,15 @@
         <v>84</v>
       </c>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="G20" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2635,6 +3635,12 @@
         <v>87</v>
       </c>
       <c r="F21" s="4"/>
+      <c r="G21" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>834</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2644,14 +3650,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -2659,9 +3665,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -2680,8 +3688,14 @@
       <c r="F1" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -2700,8 +3714,14 @@
       <c r="F2" s="8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -2720,8 +3740,14 @@
       <c r="F3" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>756</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -2740,8 +3766,14 @@
       <c r="F4" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -2758,8 +3790,14 @@
         <v>392</v>
       </c>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -2778,8 +3816,14 @@
       <c r="F6" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>759</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -2796,8 +3840,14 @@
         <v>396</v>
       </c>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -2814,8 +3864,14 @@
         <v>89</v>
       </c>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>761</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -2832,8 +3888,14 @@
         <v>304</v>
       </c>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -2852,8 +3914,14 @@
       <c r="F10" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>763</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -2872,8 +3940,14 @@
       <c r="F11" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2890,8 +3964,14 @@
         <v>396</v>
       </c>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>765</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -2908,8 +3988,14 @@
       <c r="F13" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -2928,8 +4014,14 @@
       <c r="F14" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>767</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -2948,8 +4040,14 @@
       <c r="F15" s="8" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -2964,8 +4062,14 @@
         <v>407</v>
       </c>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -2982,8 +4086,14 @@
       <c r="F17" s="8" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3000,8 +4110,14 @@
         <v>57</v>
       </c>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3018,8 +4134,14 @@
       <c r="F19" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3036,8 +4158,14 @@
       <c r="F20" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3053,6 +4181,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>387</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -3063,14 +4197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3078,9 +4212,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="15.25" customWidth="1"/>
+    <col min="8" max="8" width="53.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3099,8 +4235,14 @@
       <c r="F1" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3119,8 +4261,14 @@
       <c r="F2" s="8" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>775</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3139,8 +4287,14 @@
       <c r="F3" s="8" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>776</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3159,8 +4313,14 @@
       <c r="F4" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>777</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3179,8 +4339,14 @@
       <c r="F5" s="8" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3199,8 +4365,14 @@
       <c r="F6" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>779</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -3219,8 +4391,14 @@
       <c r="F7" s="8" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3239,8 +4417,14 @@
       <c r="F8" s="8" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -3259,8 +4443,14 @@
       <c r="F9" s="8" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -3279,8 +4469,14 @@
       <c r="F10" s="8" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -3299,8 +4495,14 @@
       <c r="F11" s="8" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3319,8 +4521,14 @@
       <c r="F12" s="8" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3339,8 +4547,14 @@
       <c r="F13" s="8" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3359,8 +4573,14 @@
       <c r="F14" s="8" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3379,8 +4599,14 @@
       <c r="F15" s="8" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>788</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3399,8 +4625,14 @@
       <c r="F16" s="8" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -3419,8 +4651,14 @@
       <c r="F17" s="8" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3439,8 +4677,14 @@
       <c r="F18" s="8" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3459,8 +4703,14 @@
       <c r="F19" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3479,23 +4729,33 @@
       <c r="F20" s="8" t="s">
         <v>456</v>
       </c>
+      <c r="G20" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="G21" s="15"/>
+      <c r="H21" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3503,9 +4763,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3524,8 +4786,14 @@
       <c r="F1" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3542,8 +4810,14 @@
       <c r="F2" s="8" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3562,8 +4836,14 @@
       <c r="F3" s="8" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3582,8 +4862,14 @@
       <c r="F4" s="8" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -3600,8 +4886,14 @@
       <c r="F5" s="8" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -3620,8 +4912,14 @@
       <c r="F6" s="8" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -3640,8 +4938,14 @@
       <c r="F7" s="8" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -3660,8 +4964,14 @@
       <c r="F8" s="8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -3680,8 +4990,14 @@
       <c r="F9" s="8" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -3700,8 +5016,14 @@
       <c r="F10" s="8" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -3720,8 +5042,14 @@
       <c r="F11" s="8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3738,8 +5066,14 @@
       <c r="F12" s="8" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -3756,8 +5090,14 @@
       <c r="F13" s="8" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3774,8 +5114,14 @@
       <c r="F14" s="8" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -3794,8 +5140,14 @@
       <c r="F15" s="8" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -3812,8 +5164,14 @@
       <c r="F16" s="8" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -3832,8 +5190,14 @@
       <c r="F17" s="8" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -3852,8 +5216,14 @@
       <c r="F18" s="8" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -3872,8 +5242,14 @@
       <c r="F19" s="8" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -3890,8 +5266,14 @@
       <c r="F20" s="8" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -3909,6 +5291,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>500</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -3919,14 +5307,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -3934,9 +5322,10 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -3955,8 +5344,14 @@
       <c r="F1" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -3975,8 +5370,14 @@
       <c r="F2" s="8" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -3995,8 +5396,14 @@
       <c r="F3" s="8" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4015,8 +5422,14 @@
       <c r="F4" s="8" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4035,8 +5448,14 @@
       <c r="F5" s="8" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -4055,8 +5474,14 @@
       <c r="F6" s="8" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -4075,8 +5500,14 @@
       <c r="F7" s="8" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -4095,8 +5526,14 @@
       <c r="F8" s="8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -4115,8 +5552,14 @@
       <c r="F9" s="8" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -4135,8 +5578,14 @@
       <c r="F10" s="8" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4155,8 +5604,14 @@
       <c r="F11" s="8" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -4175,8 +5630,14 @@
       <c r="F12" s="8" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4195,8 +5656,14 @@
       <c r="F13" s="8" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4215,8 +5682,14 @@
       <c r="F14" s="8" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -4235,8 +5708,14 @@
       <c r="F15" s="8" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -4255,8 +5734,14 @@
       <c r="F16" s="8" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -4275,8 +5760,14 @@
       <c r="F17" s="8" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -4295,8 +5786,14 @@
       <c r="F18" s="8" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -4315,8 +5812,14 @@
       <c r="F19" s="8" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -4335,8 +5838,14 @@
       <c r="F20" s="8" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -4354,6 +5863,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>545</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -4364,14 +5879,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4379,9 +5894,10 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="8" max="8" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4400,8 +5916,14 @@
       <c r="F1" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4418,8 +5940,14 @@
       <c r="F2" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4436,8 +5964,14 @@
       <c r="F3" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4454,8 +5988,14 @@
       <c r="F4" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4472,8 +6012,14 @@
       <c r="F5" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -4490,8 +6036,14 @@
       <c r="F6" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -4508,8 +6060,14 @@
       <c r="F7" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -4526,8 +6084,14 @@
       <c r="F8" s="8" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -4544,8 +6108,14 @@
       <c r="F9" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -4562,8 +6132,14 @@
       <c r="F10" s="8" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>802</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -4580,8 +6156,14 @@
       <c r="F11" s="8" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -4598,8 +6180,14 @@
       <c r="F12" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -4616,8 +6204,14 @@
       <c r="F13" s="8" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4634,8 +6228,14 @@
       <c r="F14" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -4652,8 +6252,14 @@
       <c r="F15" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -4670,8 +6276,14 @@
       <c r="F16" s="8" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>808</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -4688,8 +6300,14 @@
       <c r="F17" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -4706,8 +6324,14 @@
       <c r="F18" s="8" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -4724,8 +6348,14 @@
       <c r="F19" s="8" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -4742,8 +6372,14 @@
       <c r="F20" s="8" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -4759,6 +6395,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>561</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -4769,15 +6411,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -4785,9 +6427,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4806,8 +6450,14 @@
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -4824,8 +6474,14 @@
       <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -4842,8 +6498,14 @@
       <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -4860,8 +6522,14 @@
       <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -4878,8 +6546,14 @@
       <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
@@ -4896,8 +6570,14 @@
       <c r="F6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="7" t="s">
         <v>28</v>
       </c>
@@ -4914,8 +6594,14 @@
       <c r="F7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
@@ -4932,8 +6618,14 @@
       <c r="F8" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="7" t="s">
         <v>41</v>
       </c>
@@ -4950,8 +6642,14 @@
       <c r="F9" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="7" t="s">
         <v>34</v>
       </c>
@@ -4968,8 +6666,14 @@
       <c r="F10" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4986,8 +6690,14 @@
       <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -5004,8 +6714,14 @@
       <c r="F12" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="7" t="s">
         <v>37</v>
       </c>
@@ -5022,8 +6738,14 @@
       <c r="F13" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -5040,8 +6762,14 @@
       <c r="F14" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -5058,8 +6786,14 @@
       <c r="F15" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
@@ -5076,8 +6810,14 @@
       <c r="F16" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="7" t="s">
         <v>39</v>
       </c>
@@ -5094,8 +6834,14 @@
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
@@ -5112,8 +6858,14 @@
       <c r="F18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
@@ -5130,8 +6882,14 @@
       <c r="F19" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -5148,8 +6906,14 @@
       <c r="F20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
@@ -5166,24 +6930,30 @@
       <c r="F21" s="8" t="s">
         <v>2</v>
       </c>
+      <c r="G21" s="15" t="s">
+        <v>615</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>836</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5191,9 +6961,10 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="48.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5212,8 +6983,14 @@
       <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5232,8 +7009,14 @@
       <c r="F2" s="8" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5252,8 +7035,14 @@
       <c r="F3" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>617</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5272,8 +7061,14 @@
       <c r="F4" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5292,8 +7087,14 @@
       <c r="F5" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5312,8 +7113,14 @@
       <c r="F6" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5332,8 +7139,14 @@
       <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>621</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5352,8 +7165,14 @@
       <c r="F8" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5372,8 +7191,14 @@
       <c r="F9" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5392,8 +7217,14 @@
       <c r="F10" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5412,8 +7243,14 @@
       <c r="F11" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5432,8 +7269,14 @@
       <c r="F12" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5452,8 +7295,14 @@
       <c r="F13" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5472,8 +7321,14 @@
       <c r="F14" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5492,8 +7347,14 @@
       <c r="F15" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>629</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5510,8 +7371,14 @@
         <v>55</v>
       </c>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5530,8 +7397,14 @@
       <c r="F17" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5550,8 +7423,14 @@
       <c r="F18" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -5570,8 +7449,14 @@
       <c r="F19" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -5590,8 +7475,14 @@
       <c r="F20" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -5609,6 +7500,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>116</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
@@ -5619,14 +7516,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -5634,9 +7531,10 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -5655,8 +7553,14 @@
       <c r="F1" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -5675,8 +7579,14 @@
       <c r="F2" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -5695,8 +7605,14 @@
       <c r="F3" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>637</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -5706,15 +7622,23 @@
       <c r="C4" s="8">
         <v>357600</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -5724,15 +7648,23 @@
       <c r="C5" s="8">
         <v>688410</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>639</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5742,15 +7674,23 @@
       <c r="C6" s="8">
         <v>295510</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E6" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -5760,15 +7700,23 @@
       <c r="C7" s="8">
         <v>683730</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E7" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -5778,15 +7726,23 @@
       <c r="C8" s="8">
         <v>769500</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -5796,15 +7752,23 @@
       <c r="C9" s="8">
         <v>691000</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -5814,15 +7778,23 @@
       <c r="C10" s="8">
         <v>697000</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E10" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -5832,15 +7804,23 @@
       <c r="C11" s="8">
         <v>1596920</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -5850,15 +7830,23 @@
       <c r="C12" s="8">
         <v>956130</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -5868,15 +7856,23 @@
       <c r="C13" s="8">
         <v>295330</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -5886,15 +7882,23 @@
       <c r="C14" s="8">
         <v>658000</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E14" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -5904,15 +7908,23 @@
       <c r="C15" s="8">
         <v>161120</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="8" t="s">
         <v>172</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5922,15 +7934,23 @@
       <c r="C16" s="8">
         <v>349900</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -5940,15 +7960,23 @@
       <c r="C17" s="8">
         <v>282800</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>145</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -5958,15 +7986,23 @@
       <c r="C18" s="8">
         <v>571170</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -5976,15 +8012,23 @@
       <c r="C19" s="8">
         <v>426720</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>92</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -5994,15 +8038,23 @@
       <c r="C20" s="8">
         <v>188000</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>183</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6012,12 +8064,20 @@
       <c r="C21" s="8">
         <v>370490</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>187</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -6028,14 +8088,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6043,9 +8103,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6064,8 +8126,14 @@
       <c r="F1" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6084,8 +8152,14 @@
       <c r="F2" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6104,8 +8178,14 @@
       <c r="F3" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6124,8 +8204,14 @@
       <c r="F4" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6144,8 +8230,14 @@
       <c r="F5" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6164,8 +8256,14 @@
       <c r="F6" s="8" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6184,8 +8282,14 @@
       <c r="F7" s="8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6204,8 +8308,14 @@
       <c r="F8" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6224,8 +8334,14 @@
       <c r="F9" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>663</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6244,8 +8360,14 @@
       <c r="F10" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6264,8 +8386,14 @@
       <c r="F11" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6284,8 +8412,14 @@
       <c r="F12" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6304,8 +8438,14 @@
       <c r="F13" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6324,8 +8464,14 @@
       <c r="F14" s="8" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6344,8 +8490,14 @@
       <c r="F15" s="8" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6364,8 +8516,14 @@
       <c r="F16" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6384,8 +8542,14 @@
       <c r="F17" s="8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6404,8 +8568,14 @@
       <c r="F18" s="8" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6424,8 +8594,14 @@
       <c r="F19" s="8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6444,8 +8620,14 @@
       <c r="F20" s="8" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -6463,6 +8645,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>198</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -6473,14 +8661,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6488,9 +8676,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6509,8 +8699,14 @@
       <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6529,8 +8725,14 @@
       <c r="F2" s="8" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6549,8 +8751,14 @@
       <c r="F3" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -6569,8 +8777,14 @@
       <c r="F4" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -6589,8 +8803,14 @@
       <c r="F5" s="8" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -6609,8 +8829,14 @@
       <c r="F6" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -6629,8 +8855,14 @@
       <c r="F7" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -6649,8 +8881,14 @@
       <c r="F8" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -6669,8 +8907,14 @@
       <c r="F9" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -6689,8 +8933,14 @@
       <c r="F10" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -6709,8 +8959,14 @@
       <c r="F11" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -6729,8 +8985,14 @@
       <c r="F12" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -6749,8 +9011,14 @@
       <c r="F13" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -6769,8 +9037,14 @@
       <c r="F14" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -6789,8 +9063,14 @@
       <c r="F15" s="8" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -6809,8 +9089,14 @@
       <c r="F16" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -6829,8 +9115,14 @@
       <c r="F17" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -6849,8 +9141,14 @@
       <c r="F18" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -6869,8 +9167,14 @@
       <c r="F19" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -6889,14 +9193,22 @@
       <c r="F20" s="8" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="11"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6906,14 +9218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="H2" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -6921,9 +9233,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="49.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -6942,8 +9256,14 @@
       <c r="F1" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -6962,8 +9282,14 @@
       <c r="F2" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -6982,8 +9308,14 @@
       <c r="F3" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7002,8 +9334,14 @@
       <c r="F4" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7022,8 +9360,14 @@
       <c r="F5" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7042,8 +9386,14 @@
       <c r="F6" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7062,8 +9412,14 @@
       <c r="F7" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>700</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7082,8 +9438,14 @@
       <c r="F8" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7102,8 +9464,14 @@
       <c r="F9" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>702</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7122,8 +9490,14 @@
       <c r="F10" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7142,8 +9516,14 @@
       <c r="F11" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7162,8 +9542,14 @@
       <c r="F12" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7182,8 +9568,14 @@
       <c r="F13" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7202,8 +9594,14 @@
       <c r="F14" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7222,8 +9620,14 @@
       <c r="F15" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7242,8 +9646,14 @@
       <c r="F16" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7262,8 +9672,14 @@
       <c r="F17" s="8" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7282,8 +9698,14 @@
       <c r="F18" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7302,8 +9724,14 @@
       <c r="F19" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7322,8 +9750,14 @@
       <c r="F20" s="8" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7341,6 +9775,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>262</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -7351,14 +9791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="H1" sqref="H1:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7366,9 +9806,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7387,8 +9829,14 @@
       <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7405,8 +9853,14 @@
       <c r="F2" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7423,8 +9877,14 @@
       <c r="F3" s="8" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7441,8 +9901,14 @@
       <c r="F4" s="8" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7459,8 +9925,14 @@
       <c r="F5" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7477,8 +9949,14 @@
       <c r="F6" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7495,8 +9973,14 @@
       <c r="F7" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7513,8 +9997,14 @@
       <c r="F8" s="8" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7531,8 +10021,14 @@
       <c r="F9" s="8" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7549,8 +10045,14 @@
       <c r="F10" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7567,8 +10069,14 @@
       <c r="F11" s="8" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -7585,8 +10093,14 @@
       <c r="F12" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -7603,8 +10117,14 @@
       <c r="F13" s="8" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -7621,8 +10141,14 @@
       <c r="F14" s="8" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -7639,8 +10165,14 @@
       <c r="F15" s="8" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -7657,8 +10189,14 @@
       <c r="F16" s="8" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -7675,8 +10213,14 @@
       <c r="F17" s="8" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -7693,8 +10237,14 @@
       <c r="F18" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -7711,8 +10261,14 @@
       <c r="F19" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -7729,8 +10285,14 @@
       <c r="F20" s="8" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -7746,6 +10308,12 @@
       </c>
       <c r="F21" s="8" t="s">
         <v>333</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -7756,14 +10324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D17" sqref="D17:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
@@ -7771,9 +10339,11 @@
     <col min="4" max="4" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="18.125" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -7792,8 +10362,14 @@
       <c r="F1" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="7" t="s">
         <v>30</v>
       </c>
@@ -7812,8 +10388,14 @@
       <c r="F2" s="8" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -7832,8 +10414,14 @@
       <c r="F3" s="8" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -7852,8 +10440,14 @@
       <c r="F4" s="8" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
@@ -7872,8 +10466,14 @@
       <c r="F5" s="8" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -7892,8 +10492,14 @@
       <c r="F6" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
@@ -7912,8 +10518,14 @@
       <c r="F7" s="8" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -7932,8 +10544,14 @@
       <c r="F8" s="8" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="12" t="s">
         <v>41</v>
       </c>
@@ -7952,8 +10570,14 @@
       <c r="F9" s="8" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="12" t="s">
         <v>34</v>
       </c>
@@ -7972,8 +10596,14 @@
       <c r="F10" s="8" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
@@ -7992,8 +10622,14 @@
       <c r="F11" s="8" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -8012,8 +10648,14 @@
       <c r="F12" s="8" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
         <v>37</v>
       </c>
@@ -8032,8 +10674,14 @@
       <c r="F13" s="8" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="15" t="s">
+        <v>746</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -8052,8 +10700,14 @@
       <c r="F14" s="8" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
@@ -8072,8 +10726,14 @@
       <c r="F15" s="8" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
@@ -8092,8 +10752,14 @@
       <c r="F16" s="8" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -8103,15 +10769,23 @@
       <c r="C17" s="8">
         <v>19480</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
@@ -8121,15 +10795,23 @@
       <c r="C18" s="8">
         <v>23900</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -8139,15 +10821,23 @@
       <c r="C19" s="8">
         <v>34990</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>373</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="12" t="s">
         <v>24</v>
       </c>
@@ -8157,15 +10847,23 @@
       <c r="C20" s="8">
         <v>39000</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
@@ -8175,12 +10873,20 @@
       <c r="C21" s="8">
         <v>17990</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11" t="s">
+        <v>345</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>237</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>378</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>
